--- a/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_gpt-4o-mini.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_gpt-4o-mini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GESSI\Projectes\review-emotion-analysis\data\annotations\new_annotation_structure_out\iteration_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305C1C1-2BAE-41F5-B64C-8D6E6FD63293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C6F42-EE54-4A40-8E0A-F0AC253BC47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="488">
   <si>
     <t>iteration</t>
   </si>
@@ -1484,12 +1484,6 @@
   </si>
   <si>
     <t>Accuracy is really bad show pin location all over the place fly everywhere yet zenly can use fake gps not</t>
-  </si>
-  <si>
-    <t>f_451</t>
-  </si>
-  <si>
-    <t>f_399</t>
   </si>
 </sst>
 </file>
@@ -1852,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,31 +4153,31 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>488</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J38" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4195,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4207,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4221,31 +4215,31 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="J39" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4283,34 +4277,34 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4331,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4345,34 +4339,34 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4396,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -4407,31 +4401,31 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4446,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4458,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4469,37 +4463,37 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4508,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4531,37 +4525,37 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J44" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4582,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4593,31 +4587,31 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J45" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4641,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4655,31 +4649,31 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4703,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4717,31 +4711,31 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4768,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4779,34 +4773,34 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="I48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4841,31 +4835,31 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="G49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J49" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4903,34 +4897,34 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="I50" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J50" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4942,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4951,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4983,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="I51" t="s">
         <v>265</v>
@@ -5027,31 +5021,31 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="I52" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5072,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -5089,31 +5083,31 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="I53" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="J53" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5128,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5151,31 +5145,31 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I54" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5213,31 +5207,31 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I55" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="J55" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5261,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5275,34 +5269,34 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J56" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5323,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -5337,40 +5331,40 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="I57" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J57" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -5399,31 +5393,31 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58">
         <v>2</v>
       </c>
-      <c r="F58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="I58" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J58" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5432,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5450,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5461,34 +5455,34 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I59" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J59" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5512,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5523,31 +5517,31 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
       <c r="I60" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5585,34 +5579,34 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="I61" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J61" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5633,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5647,31 +5641,31 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I62" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J62" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5695,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5709,31 +5703,31 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I63" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J63" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5771,31 +5765,31 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J64" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5833,31 +5827,31 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>31</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5895,34 +5889,34 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="I66" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J66" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5946,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5957,31 +5951,31 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J67" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6019,34 +6013,34 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>347</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J68" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6067,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -6081,34 +6075,34 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J69" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6129,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -6143,34 +6137,34 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="J70" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6182,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6205,31 +6199,31 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="I71" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J71" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6244,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -6253,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -6267,34 +6261,34 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" t="s">
         <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="J72" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6315,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -6329,34 +6323,34 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="I73" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6383,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -6391,34 +6385,34 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>374</v>
+      </c>
+      <c r="G74">
         <v>5</v>
       </c>
-      <c r="F74" t="s">
-        <v>291</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
       <c r="H74" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J74" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6453,34 +6447,34 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G75">
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J75" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6501,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -6515,31 +6509,31 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="G76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J76" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -6563,13 +6557,13 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6577,31 +6571,31 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J77" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -6631,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6639,37 +6633,37 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="I78" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J78" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6701,37 +6695,37 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I79" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6749,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6763,31 +6757,31 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="I80" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="J80" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6802,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -6814,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6825,37 +6819,37 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="I81" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="J81" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -6873,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -6887,34 +6881,34 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="I82" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="J82" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6926,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -6949,31 +6943,31 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G83">
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="I83" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="J83" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -7011,31 +7005,31 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="I84" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J84" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -7073,37 +7067,37 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>417</v>
+        <v>31</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="I85" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J85" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -7115,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -7135,37 +7129,37 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>239</v>
       </c>
       <c r="G86">
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I86" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="J86" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -7197,34 +7191,34 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="I87" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J87" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7239,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -7259,37 +7253,37 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
       <c r="G88">
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>431</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="J88" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -7307,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -7321,34 +7315,34 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I89" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="J89" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -7372,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -7383,31 +7377,31 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>68</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J90" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -7431,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -7445,31 +7439,31 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="I91" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="J91" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7490,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7507,31 +7501,31 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>346</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>140</v>
+        <v>457</v>
       </c>
       <c r="I92" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J92" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7552,13 +7546,13 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7569,31 +7563,31 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="I93" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J93" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7614,13 +7608,13 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7631,31 +7625,31 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>464</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>457</v>
       </c>
       <c r="I94" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="J94" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7676,13 +7670,13 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7693,31 +7687,31 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>460</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>470</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>102</v>
+        <v>471</v>
       </c>
       <c r="I95" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="J95" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7741,10 +7735,10 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7755,31 +7749,31 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>464</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
       <c r="I96" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="J96" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -7803,10 +7797,10 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7817,31 +7811,31 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="I97" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J97" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7879,31 +7873,31 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>480</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="D98" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="I98" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="J98" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -7927,13 +7921,10 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7941,31 +7932,31 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="I99" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="J99" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7980,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -7989,130 +7980,9 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" t="s">
-        <v>480</v>
-      </c>
-      <c r="C100" t="s">
-        <v>274</v>
-      </c>
-      <c r="D100" t="s">
-        <v>481</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>482</v>
-      </c>
-      <c r="G100">
-        <v>5</v>
-      </c>
-      <c r="H100" t="s">
-        <v>418</v>
-      </c>
-      <c r="I100" t="s">
-        <v>483</v>
-      </c>
-      <c r="J100" t="s">
-        <v>483</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" t="s">
-        <v>484</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" t="s">
-        <v>485</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>384</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>486</v>
-      </c>
-      <c r="I101" t="s">
-        <v>487</v>
-      </c>
-      <c r="J101" t="s">
-        <v>487</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
         <v>0</v>
       </c>
     </row>
